--- a/biology/Zoologie/Eryosuchus/Eryosuchus.xlsx
+++ b/biology/Zoologie/Eryosuchus/Eryosuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eryosuchus est un genre éteint de temnospondyles amphibiens de la famille des Mastodonsauridae et vivant au Trias moyen dans le Nord de la Russie.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eryosuchus a été créé en 1966 par la paléontologue russe Vitaly Georgievich Ochev (d)[1] (1931-2004) avec comme espèce type Eryosuchus tverdochlebovi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eryosuchus a été créé en 1966 par la paléontologue russe Vitaly Georgievich Ochev (d) (1931-2004) avec comme espèce type Eryosuchus tverdochlebovi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agissait d'un très grand prédateur. Le plus gros spécimen connu pouvait atteindre jusqu'à 3,50 m de longueur[3], avec un crâne de plus de 1,00 m de long.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agissait d'un très grand prédateur. Le plus gros spécimen connu pouvait atteindre jusqu'à 3,50 m de longueur, avec un crâne de plus de 1,00 m de long.
 </t>
         </is>
       </c>
@@ -573,16 +589,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (30 juillet 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (30 juillet 2021) :
 † Eryosuchus antiquus Otschev, 1966
 † Eryosuchus garjainovi Otschev, 1966
 † Eryosuchus tverdochlebovi Otschev, 1966 - espèce type
-Selon Paleobiology Database                   (30 juillet 2021)[2] :
+Selon Paleobiology Database                   (30 juillet 2021) :
 † Eryosuchus rajareddyi Chowdhury 1970
 † Eryosuchus tverdochlebovi Otschev, 1966 - espèce type
-Pour ce site, les espèces Eryosuchus antiquus et Eryosuchus garjainovi ne seraient que des synonymes de Eryosuchus tverdochlebovi[2].
+Pour ce site, les espèces Eryosuchus antiquus et Eryosuchus garjainovi ne seraient que des synonymes de Eryosuchus tverdochlebovi.
 </t>
         </is>
       </c>
